--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateCheckCodeError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateCheckCodeError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1234</t>
+    <t>${ConstantUtils.getErrorCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateCheckCodeError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateCheckCodeError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${ConstantUtils.getErrorCheckCode()}</t>
+    <t>1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateCheckCodeError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateCheckCodeError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="1815"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1234</t>
+    <t>${ConstantUtils.getErrorCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateCheckCodeError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateCheckCodeError.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="1815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -59,19 +59,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>校验验证码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getErrorCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验验证码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getErrorCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -463,16 +463,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateCheckCodeError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateCheckCodeError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +69,9 @@
   <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'${ConstantUtils.getCorrectLoginPassword()}</t>
   </si>
 </sst>
 </file>
@@ -425,7 +424,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -443,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -463,16 +462,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
